--- a/data/inventory/lci-euro5.xlsx
+++ b/data/inventory/lci-euro5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - NTNU\Attachments\PSI\jupyter\Adapt LCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nistad_a\Desktop\scrappage-bev\data\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{88197D9C-9DDF-4268-BFD5-7126506A125B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B73BC1E9-4523-4D34-B195-008E8F2ABEC2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FA14C38-9AE1-4F55-8E0E-6E16D528AE99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="euro 5" sheetId="1" r:id="rId1"/>
@@ -258,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,7 +345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,19 +656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810BBB6D-C800-403E-82C8-6D417F73D81E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H810"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:J465"/>
+      <selection activeCell="A460" sqref="A460"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -677,7 +676,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -685,7 +684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -693,7 +692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -701,7 +700,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -709,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -717,7 +716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -725,12 +724,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -753,7 +752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -770,7 +769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -787,12 +786,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13">
-        <v>0.18458470153808601</v>
+        <v>0.18705805969238301</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -804,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -821,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -838,7 +837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -855,7 +854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -872,12 +871,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
-        <v>9.0583914518356306E-4</v>
+        <v>8.92306566238403E-4</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -889,12 +888,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19">
-        <v>1.9147011917084501E-6</v>
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -906,12 +905,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20">
-        <v>9.2900852905586409E-7</v>
+        <v>9.4145687762647898E-7</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -923,7 +922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -943,7 +942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -963,7 +962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -983,12 +982,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24">
-        <v>5.8063034057617202E-2</v>
+        <v>5.8841053009033202E-2</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1003,7 +1002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1243,12 +1242,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1305,12 +1304,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45">
-        <v>0.106128105163574</v>
+        <v>0.10641357421875</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1322,7 +1321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1390,12 +1389,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>36</v>
       </c>
       <c r="B50">
-        <v>9.0583914518356306E-4</v>
+        <v>8.92306566238403E-4</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1407,12 +1406,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51">
-        <v>1.9147011917084501E-6</v>
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1424,12 +1423,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="B52">
-        <v>5.3413916612044002E-7</v>
+        <v>5.3557590581476698E-7</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -1441,7 +1440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1501,12 +1500,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56">
-        <v>3.3383697509765588E-2</v>
+        <v>3.34734916687012E-2</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1521,7 +1520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1761,12 +1760,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1823,12 +1822,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77">
-        <v>0.13882827758789101</v>
+        <v>0.139746566772461</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
@@ -1840,7 +1839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -1908,12 +1907,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82">
-        <v>9.0583914518356306E-4</v>
+        <v>8.92306566238403E-4</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -1925,12 +1924,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83">
-        <v>1.9147011917084501E-6</v>
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -1942,12 +1941,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>34</v>
       </c>
       <c r="B84">
-        <v>6.9871795130893598E-7</v>
+        <v>7.0333969779312598E-7</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -1959,7 +1958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -2019,12 +2018,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>62</v>
       </c>
       <c r="B88">
-        <v>4.3669872283935499E-2</v>
+        <v>4.3958732604980497E-2</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2039,7 +2038,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2279,12 +2278,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -2341,12 +2340,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>41</v>
       </c>
       <c r="B109">
-        <v>0.106128105163574</v>
+        <v>0.10641357421875</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -2358,7 +2357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -2426,12 +2425,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="B114">
-        <v>9.0583914518356306E-4</v>
+        <v>8.92306566238403E-4</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2443,12 +2442,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>35</v>
       </c>
       <c r="B115">
-        <v>1.9147011917084501E-6</v>
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2460,12 +2459,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>34</v>
       </c>
       <c r="B116">
-        <v>5.3413916612044002E-7</v>
+        <v>5.3557590581476698E-7</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2477,7 +2476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -2537,12 +2536,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>62</v>
       </c>
       <c r="B120">
-        <v>3.3383697509765588E-2</v>
+        <v>3.34734916687012E-2</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -2557,7 +2556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>54</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>53</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -2797,12 +2796,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -2859,12 +2858,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>41</v>
       </c>
       <c r="B141">
-        <v>0.18458470153808601</v>
+        <v>0.18705805969238301</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -2876,7 +2875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -2944,12 +2943,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>36</v>
       </c>
       <c r="B146">
-        <v>9.0583914518356306E-4</v>
+        <v>8.92306566238403E-4</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -2961,12 +2960,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147">
-        <v>1.9147011917084501E-6</v>
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -2978,12 +2977,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>34</v>
       </c>
       <c r="B148">
-        <v>9.2900852905586409E-7</v>
+        <v>9.4145687762647898E-7</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -2995,7 +2994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -3055,12 +3054,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>62</v>
       </c>
       <c r="B152">
-        <v>5.8063034057617202E-2</v>
+        <v>5.8841053009033202E-2</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3075,7 +3074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>54</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3315,12 +3314,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -3377,12 +3376,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>41</v>
       </c>
       <c r="B173">
-        <v>0.106128105163574</v>
+        <v>0.10641357421875</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -3394,7 +3393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -3462,12 +3461,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>36</v>
       </c>
       <c r="B178">
-        <v>9.0583914518356306E-4</v>
+        <v>8.92306566238403E-4</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -3479,12 +3478,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>35</v>
       </c>
       <c r="B179">
-        <v>1.9147011917084501E-6</v>
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
@@ -3496,12 +3495,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>34</v>
       </c>
       <c r="B180">
-        <v>5.3413916612044002E-7</v>
+        <v>5.3557590581476698E-7</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
@@ -3513,7 +3512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -3573,12 +3572,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>62</v>
       </c>
       <c r="B184">
-        <v>3.3383697509765588E-2</v>
+        <v>3.34734916687012E-2</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -3593,7 +3592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75">
       <c r="A196" s="1" t="s">
         <v>54</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>47</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3833,12 +3832,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75">
       <c r="A201" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -3895,12 +3894,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>41</v>
       </c>
       <c r="B205">
-        <v>0.13882827758789101</v>
+        <v>0.139746566772461</v>
       </c>
       <c r="D205" t="s">
         <v>2</v>
@@ -3912,7 +3911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -3980,12 +3979,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>36</v>
       </c>
       <c r="B210">
-        <v>9.0583914518356306E-4</v>
+        <v>8.92306566238403E-4</v>
       </c>
       <c r="D210" t="s">
         <v>2</v>
@@ -3997,12 +3996,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>35</v>
       </c>
       <c r="B211">
-        <v>1.9147011917084501E-6</v>
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -4014,12 +4013,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>34</v>
       </c>
       <c r="B212">
-        <v>6.9871795130893598E-7</v>
+        <v>7.0333969779312598E-7</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
@@ -4031,7 +4030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -4091,12 +4090,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>62</v>
       </c>
       <c r="B216">
-        <v>4.3669872283935499E-2</v>
+        <v>4.3958732604980497E-2</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -4111,7 +4110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4291,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15.75">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -4335,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4351,12 +4350,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -4379,12 +4378,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>43</v>
       </c>
       <c r="B235">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0282692760229097E-5</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
@@ -4396,12 +4395,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>42</v>
       </c>
       <c r="B236">
-        <v>1.13679200876504E-6</v>
+        <v>1.13657116889954E-6</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4413,12 +4412,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>41</v>
       </c>
       <c r="B237">
-        <v>0.24421260070800799</v>
+        <v>0.24457383728027299</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4430,12 +4429,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>40</v>
       </c>
       <c r="B238">
-        <v>6.4274084568023704E-4</v>
+        <v>6.4208847284317008E-4</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4447,12 +4446,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>39</v>
       </c>
       <c r="B239">
-        <v>4.3919458403252099E-7</v>
+        <v>4.25747130066156E-7</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -4464,12 +4463,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>38</v>
       </c>
       <c r="B240">
-        <v>7.3851912748068604E-7</v>
+        <v>7.3837570380419505E-7</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -4481,12 +4480,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>37</v>
       </c>
       <c r="B241">
-        <v>8.0533754080533991E-6</v>
+        <v>8.0518117174506213E-6</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -4498,7 +4497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>36</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -4532,12 +4531,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>34</v>
       </c>
       <c r="B244">
-        <v>1.1723564239218799E-6</v>
+        <v>1.17409054655582E-6</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -4549,7 +4548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>31</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4709,12 +4708,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253">
-        <v>7.7896369934081999E-2</v>
+        <v>7.8011596679687503E-2</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -4729,7 +4728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.75">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -4869,12 +4868,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15.75">
       <c r="A265" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -4897,12 +4896,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>43</v>
       </c>
       <c r="B267">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0282692760229097E-5</v>
       </c>
       <c r="D267" t="s">
         <v>2</v>
@@ -4914,12 +4913,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>42</v>
       </c>
       <c r="B268">
-        <v>1.13679200876504E-6</v>
+        <v>1.13657116889954E-6</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -4931,12 +4930,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>41</v>
       </c>
       <c r="B269">
-        <v>0.142920104980469</v>
+        <v>0.14189616394043</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -4948,12 +4947,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>40</v>
       </c>
       <c r="B270">
-        <v>6.4274084568023704E-4</v>
+        <v>6.4208847284317008E-4</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -4965,12 +4964,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>39</v>
       </c>
       <c r="B271">
-        <v>4.3919458403252099E-7</v>
+        <v>4.25747130066156E-7</v>
       </c>
       <c r="D271" t="s">
         <v>2</v>
@@ -4982,12 +4981,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>38</v>
       </c>
       <c r="B272">
-        <v>7.3851912748068604E-7</v>
+        <v>7.3837570380419505E-7</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -4999,12 +4998,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>37</v>
       </c>
       <c r="B273">
-        <v>8.0533754080533991E-6</v>
+        <v>8.0518117174506213E-6</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -5016,7 +5015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>36</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -5050,12 +5049,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>34</v>
       </c>
       <c r="B276">
-        <v>6.8609608570113795E-7</v>
+        <v>6.8118056515231701E-7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -5067,7 +5066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>26</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5227,12 +5226,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>17</v>
       </c>
       <c r="B285">
-        <v>4.5587154388427698E-2</v>
+        <v>4.5260547637939498E-2</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -5247,7 +5246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75">
       <c r="A292" s="1" t="s">
         <v>54</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>47</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -5387,12 +5386,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75">
       <c r="A297" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -5415,12 +5414,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>43</v>
       </c>
       <c r="B299">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0282692760229097E-5</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
@@ -5432,12 +5431,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>42</v>
       </c>
       <c r="B300">
-        <v>1.13679200876504E-6</v>
+        <v>1.13657116889954E-6</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -5449,12 +5448,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>41</v>
       </c>
       <c r="B301">
-        <v>0.172205627441406</v>
+        <v>0.17329216003417999</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -5466,12 +5465,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>40</v>
       </c>
       <c r="B302">
-        <v>6.4274084568023704E-4</v>
+        <v>6.4208847284317008E-4</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -5483,12 +5482,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>39</v>
       </c>
       <c r="B303">
-        <v>4.3919458403252099E-7</v>
+        <v>4.25747130066156E-7</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
@@ -5500,12 +5499,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>38</v>
       </c>
       <c r="B304">
-        <v>7.3851912748068604E-7</v>
+        <v>7.3837570380419505E-7</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -5517,12 +5516,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>37</v>
       </c>
       <c r="B305">
-        <v>8.0533754080533991E-6</v>
+        <v>8.0518117174506213E-6</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -5534,7 +5533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>36</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -5568,12 +5567,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308">
-        <v>8.26682837214321E-7</v>
+        <v>8.3189888391643798E-7</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -5585,7 +5584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5745,12 +5744,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>17</v>
       </c>
       <c r="B317">
-        <v>5.4928340911865201E-2</v>
+        <v>5.5274913787841787E-2</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -5765,7 +5764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15.75">
       <c r="A324" s="1" t="s">
         <v>54</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>53</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -5905,12 +5904,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.75">
       <c r="A329" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -5933,12 +5932,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>43</v>
       </c>
       <c r="B331">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0282692760229097E-5</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -5950,12 +5949,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>42</v>
       </c>
       <c r="B332">
-        <v>1.13679200876504E-6</v>
+        <v>1.13657116889954E-6</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -5967,12 +5966,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>41</v>
       </c>
       <c r="B333">
-        <v>0.142920104980469</v>
+        <v>0.14189616394043</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -5984,12 +5983,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>40</v>
       </c>
       <c r="B334">
-        <v>6.4274084568023704E-4</v>
+        <v>6.4208847284317008E-4</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -6001,12 +6000,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>39</v>
       </c>
       <c r="B335">
-        <v>4.3919458403252099E-7</v>
+        <v>4.25747130066156E-7</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -6018,12 +6017,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>38</v>
       </c>
       <c r="B336">
-        <v>7.3851912748068604E-7</v>
+        <v>7.3837570380419505E-7</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -6035,12 +6034,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>37</v>
       </c>
       <c r="B337">
-        <v>8.0533754080533991E-6</v>
+        <v>8.0518117174506213E-6</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -6052,7 +6051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>36</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>35</v>
       </c>
@@ -6086,12 +6085,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340">
-        <v>6.8609608570113795E-7</v>
+        <v>6.8118056515231701E-7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -6103,7 +6102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -6263,12 +6262,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>17</v>
       </c>
       <c r="B349">
-        <v>4.5587154388427698E-2</v>
+        <v>4.5260547637939498E-2</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -6283,7 +6282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.75">
       <c r="A356" s="1" t="s">
         <v>54</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>53</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>47</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -6423,12 +6422,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.75">
       <c r="A361" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>49</v>
       </c>
@@ -6451,12 +6450,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>43</v>
       </c>
       <c r="B363">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0282692760229097E-5</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -6468,12 +6467,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>42</v>
       </c>
       <c r="B364">
-        <v>1.13679200876504E-6</v>
+        <v>1.13657116889954E-6</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -6485,12 +6484,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>41</v>
       </c>
       <c r="B365">
-        <v>0.24421260070800799</v>
+        <v>0.24457383728027299</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -6502,12 +6501,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>40</v>
       </c>
       <c r="B366">
-        <v>6.4274084568023704E-4</v>
+        <v>6.4208847284317008E-4</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -6519,12 +6518,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>39</v>
       </c>
       <c r="B367">
-        <v>4.3919458403252099E-7</v>
+        <v>4.25747130066156E-7</v>
       </c>
       <c r="D367" t="s">
         <v>2</v>
@@ -6536,12 +6535,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>38</v>
       </c>
       <c r="B368">
-        <v>7.3851912748068604E-7</v>
+        <v>7.3837570380419505E-7</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -6553,12 +6552,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>37</v>
       </c>
       <c r="B369">
-        <v>8.0533754080533991E-6</v>
+        <v>8.0518117174506213E-6</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6570,7 +6569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>36</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>35</v>
       </c>
@@ -6604,12 +6603,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372">
-        <v>1.1723564239218799E-6</v>
+        <v>1.17409054655582E-6</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -6621,7 +6620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -6781,12 +6780,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>17</v>
       </c>
       <c r="B381">
-        <v>7.7896369934081999E-2</v>
+        <v>7.8011596679687503E-2</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -6801,7 +6800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -6821,7 +6820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -6841,7 +6840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="15.75">
       <c r="A388" s="1" t="s">
         <v>54</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>53</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>47</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6941,12 +6940,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="15.75">
       <c r="A393" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -6969,12 +6968,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
         <v>43</v>
       </c>
       <c r="B395">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0282692760229097E-5</v>
       </c>
       <c r="D395" t="s">
         <v>2</v>
@@ -6986,12 +6985,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>42</v>
       </c>
       <c r="B396">
-        <v>1.13679200876504E-6</v>
+        <v>1.13657116889954E-6</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -7003,12 +7002,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>41</v>
       </c>
       <c r="B397">
-        <v>0.142920104980469</v>
+        <v>0.14189616394043</v>
       </c>
       <c r="D397" t="s">
         <v>2</v>
@@ -7020,12 +7019,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>40</v>
       </c>
       <c r="B398">
-        <v>6.4274084568023704E-4</v>
+        <v>6.4208847284317008E-4</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -7037,12 +7036,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>39</v>
       </c>
       <c r="B399">
-        <v>4.3919458403252099E-7</v>
+        <v>4.25747130066156E-7</v>
       </c>
       <c r="D399" t="s">
         <v>2</v>
@@ -7054,12 +7053,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>38</v>
       </c>
       <c r="B400">
-        <v>7.3851912748068604E-7</v>
+        <v>7.3837570380419505E-7</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -7071,12 +7070,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>37</v>
       </c>
       <c r="B401">
-        <v>8.0533754080533991E-6</v>
+        <v>8.0518117174506213E-6</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -7088,7 +7087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
         <v>36</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -7122,12 +7121,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>34</v>
       </c>
       <c r="B404">
-        <v>6.8609608570113795E-7</v>
+        <v>6.8118056515231701E-7</v>
       </c>
       <c r="D404" t="s">
         <v>2</v>
@@ -7139,7 +7138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>28</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -7299,12 +7298,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>17</v>
       </c>
       <c r="B413">
-        <v>4.5587154388427698E-2</v>
+        <v>4.5260547637939498E-2</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -7319,7 +7318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15.75">
       <c r="A420" s="1" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>53</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>47</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -7459,12 +7458,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.75">
       <c r="A425" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -7487,12 +7486,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>43</v>
       </c>
       <c r="B427">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0282692760229097E-5</v>
       </c>
       <c r="D427" t="s">
         <v>2</v>
@@ -7504,12 +7503,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>42</v>
       </c>
       <c r="B428">
-        <v>1.13679200876504E-6</v>
+        <v>1.13657116889954E-6</v>
       </c>
       <c r="D428" t="s">
         <v>2</v>
@@ -7521,12 +7520,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>41</v>
       </c>
       <c r="B429">
-        <v>0.172205627441406</v>
+        <v>0.17329216003417999</v>
       </c>
       <c r="D429" t="s">
         <v>2</v>
@@ -7538,12 +7537,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>40</v>
       </c>
       <c r="B430">
-        <v>6.4274084568023704E-4</v>
+        <v>6.4208847284317008E-4</v>
       </c>
       <c r="D430" t="s">
         <v>2</v>
@@ -7555,12 +7554,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>39</v>
       </c>
       <c r="B431">
-        <v>4.3919458403252099E-7</v>
+        <v>4.25747130066156E-7</v>
       </c>
       <c r="D431" t="s">
         <v>2</v>
@@ -7572,12 +7571,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>38</v>
       </c>
       <c r="B432">
-        <v>7.3851912748068604E-7</v>
+        <v>7.3837570380419505E-7</v>
       </c>
       <c r="D432" t="s">
         <v>2</v>
@@ -7589,12 +7588,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>37</v>
       </c>
       <c r="B433">
-        <v>8.0533754080533991E-6</v>
+        <v>8.0518117174506213E-6</v>
       </c>
       <c r="D433" t="s">
         <v>2</v>
@@ -7606,7 +7605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>36</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>35</v>
       </c>
@@ -7640,12 +7639,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>34</v>
       </c>
       <c r="B436">
-        <v>8.26682837214321E-7</v>
+        <v>8.3189888391643798E-7</v>
       </c>
       <c r="D436" t="s">
         <v>2</v>
@@ -7657,7 +7656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>30</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>28</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -7817,12 +7816,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>17</v>
       </c>
       <c r="B445">
-        <v>5.4928340911865201E-2</v>
+        <v>5.5274913787841787E-2</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -7837,7 +7836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -7937,88 +7936,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="B459" s="4"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="6"/>
       <c r="B460" s="4"/>
       <c r="H460" s="6"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="6"/>
       <c r="B461" s="4"/>
       <c r="H461" s="6"/>
     </row>
-    <row r="487" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="15.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
     </row>
-    <row r="492" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="15.75">
       <c r="A492" s="1"/>
     </row>
-    <row r="519" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="15.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
     </row>
-    <row r="524" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="15.75">
       <c r="A524" s="1"/>
     </row>
-    <row r="551" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="15.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
     </row>
-    <row r="556" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="15.75">
       <c r="A556" s="1"/>
     </row>
-    <row r="583" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="15.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
     </row>
-    <row r="588" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="15.75">
       <c r="A588" s="1"/>
     </row>
-    <row r="615" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="15.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
     </row>
-    <row r="620" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="15.75">
       <c r="A620" s="1"/>
     </row>
-    <row r="653" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="15.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="15.75">
       <c r="A658" s="1"/>
     </row>
-    <row r="691" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="15.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
     </row>
-    <row r="696" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="15.75">
       <c r="A696" s="1"/>
     </row>
-    <row r="729" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="15.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
     </row>
-    <row r="734" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="15.75">
       <c r="A734" s="1"/>
     </row>
-    <row r="767" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="15.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="15.75">
       <c r="A772" s="1"/>
     </row>
-    <row r="805" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" ht="15.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
     </row>
-    <row r="810" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" ht="15.75">
       <c r="A810" s="1"/>
     </row>
   </sheetData>
